--- a/BA_04/src/ex_02_BRB_dict.xlsx
+++ b/BA_04/src/ex_02_BRB_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\Business-and-system-analyses\BA_04\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0A5A24-AA3A-4EC0-A745-EDED4E431E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DACC7F9-CAF5-470F-BDF7-C958F3917E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4092" yWindow="1740" windowWidth="18948" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -66,27 +66,6 @@
     <t>Обязательность</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Res</t>
-  </si>
-  <si>
-    <t>Mas</t>
-  </si>
-  <si>
-    <t>Fav</t>
-  </si>
-  <si>
-    <t>Sts</t>
-  </si>
-  <si>
-    <t>Sch</t>
-  </si>
-  <si>
-    <t>Rev</t>
-  </si>
-  <si>
     <t>varchar(n)</t>
   </si>
   <si>
@@ -144,6 +123,27 @@
       <t>это письменное либо устное высказывание основанное на выражении личностного
  эмоционально-оценочного отношения к увиденному, услышанному или пережитому опыту.</t>
     </r>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Feedback</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,16 +533,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -553,16 +553,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -573,16 +573,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -593,16 +593,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -613,16 +613,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -633,16 +633,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
@@ -653,16 +653,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
